--- a/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_xgb_o.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_xgb_o.xlsx
@@ -534,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.205760431289673</v>
+        <v>8.442591905593872</v>
       </c>
       <c r="C2">
-        <v>0.1009974647454727</v>
+        <v>0.09637901536126538</v>
       </c>
       <c r="D2">
-        <v>0.03587498664855957</v>
+        <v>0.07194228172302246</v>
       </c>
       <c r="E2">
-        <v>0.006868757149451475</v>
+        <v>0.00635559603797778</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.336109733581543</v>
+        <v>15.30804924964905</v>
       </c>
       <c r="C3">
-        <v>0.3371465453695797</v>
+        <v>0.3932632884317404</v>
       </c>
       <c r="D3">
-        <v>0.03604531288146973</v>
+        <v>0.07295293807983398</v>
       </c>
       <c r="E3">
-        <v>0.00631451167721674</v>
+        <v>0.006949781692282181</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -640,16 +640,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.82523303031921</v>
+        <v>29.17305912971496</v>
       </c>
       <c r="C4">
-        <v>0.3100825911373929</v>
+        <v>0.5021116178626788</v>
       </c>
       <c r="D4">
-        <v>0.04269142150878906</v>
+        <v>0.09223575592041015</v>
       </c>
       <c r="E4">
-        <v>0.009681963229422361</v>
+        <v>0.01522529843220771</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -693,16 +693,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.518579339981079</v>
+        <v>7.550992631912232</v>
       </c>
       <c r="C5">
-        <v>0.03835892770194482</v>
+        <v>0.08888154339160352</v>
       </c>
       <c r="D5">
-        <v>0.03826174736022949</v>
+        <v>0.07046957015991211</v>
       </c>
       <c r="E5">
-        <v>0.01225989748564227</v>
+        <v>0.0002037414975872083</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -746,16 +746,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.172278928756714</v>
+        <v>14.79172492027283</v>
       </c>
       <c r="C6">
-        <v>0.1931906735945007</v>
+        <v>0.1219422999300554</v>
       </c>
       <c r="D6">
-        <v>0.03761277198791504</v>
+        <v>0.07540178298950195</v>
       </c>
       <c r="E6">
-        <v>0.007796195673620092</v>
+        <v>0.004160501375129333</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -799,16 +799,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.64009776115418</v>
+        <v>29.34107294082641</v>
       </c>
       <c r="C7">
-        <v>0.3762508904896886</v>
+        <v>0.2268794595398752</v>
       </c>
       <c r="D7">
-        <v>0.04078044891357422</v>
+        <v>0.08635048866271973</v>
       </c>
       <c r="E7">
-        <v>0.008769823077852557</v>
+        <v>0.005289264604980353</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -852,16 +852,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.612517023086548</v>
+        <v>7.503352880477905</v>
       </c>
       <c r="C8">
-        <v>0.01347049661194879</v>
+        <v>0.1310849593164851</v>
       </c>
       <c r="D8">
-        <v>0.03474311828613282</v>
+        <v>0.07201232910156249</v>
       </c>
       <c r="E8">
-        <v>0.00607964187202315</v>
+        <v>0.001875570038857396</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -905,16 +905,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.745647048950195</v>
+        <v>14.81755609512329</v>
       </c>
       <c r="C9">
-        <v>0.2723785503117612</v>
+        <v>0.09037786525726574</v>
       </c>
       <c r="D9">
-        <v>0.04200458526611328</v>
+        <v>0.07908854484558106</v>
       </c>
       <c r="E9">
-        <v>0.00762565876127724</v>
+        <v>0.007138009181244579</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -958,16 +958,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.98257255554199</v>
+        <v>29.40169577598572</v>
       </c>
       <c r="C10">
-        <v>0.3013681788951205</v>
+        <v>0.3806916782220406</v>
       </c>
       <c r="D10">
-        <v>0.04900240898132324</v>
+        <v>0.09012331962585449</v>
       </c>
       <c r="E10">
-        <v>0.003613017520027225</v>
+        <v>0.008480660304821776</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1011,16 +1011,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.336185646057129</v>
+        <v>11.593577003479</v>
       </c>
       <c r="C11">
-        <v>0.1839599511392941</v>
+        <v>0.2024801433783342</v>
       </c>
       <c r="D11">
-        <v>0.04196724891662598</v>
+        <v>0.07550430297851562</v>
       </c>
       <c r="E11">
-        <v>0.008492742092590461</v>
+        <v>0.003885557849133119</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1064,16 +1064,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.526837682724</v>
+        <v>22.70200910568237</v>
       </c>
       <c r="C12">
-        <v>0.2529205023533618</v>
+        <v>0.3262352356880858</v>
       </c>
       <c r="D12">
-        <v>0.05074687004089355</v>
+        <v>0.08745970726013183</v>
       </c>
       <c r="E12">
-        <v>0.01513729659413465</v>
+        <v>0.01217818486302853</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1117,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.73205542564392</v>
+        <v>45.58377585411072</v>
       </c>
       <c r="C13">
-        <v>0.3892668174741612</v>
+        <v>0.4045742983330028</v>
       </c>
       <c r="D13">
-        <v>0.05021481513977051</v>
+        <v>0.09457931518554688</v>
       </c>
       <c r="E13">
-        <v>0.006809498803506136</v>
+        <v>0.005093394880103446</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1170,16 +1170,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.213076496124268</v>
+        <v>11.76920690536499</v>
       </c>
       <c r="C14">
-        <v>0.03946300820504198</v>
+        <v>0.03635513258113836</v>
       </c>
       <c r="D14">
-        <v>0.04275979995727539</v>
+        <v>0.07297191619873047</v>
       </c>
       <c r="E14">
-        <v>0.006156839556457492</v>
+        <v>0.007759272300865245</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1223,16 +1223,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.68657379150391</v>
+        <v>23.00003199577332</v>
       </c>
       <c r="C15">
-        <v>0.2992691600706321</v>
+        <v>0.351273547914037</v>
       </c>
       <c r="D15">
-        <v>0.04802498817443848</v>
+        <v>0.0801931381225586</v>
       </c>
       <c r="E15">
-        <v>0.001755924523093609</v>
+        <v>0.0007817859523759911</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1276,16 +1276,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.93659763336182</v>
+        <v>45.76391348838806</v>
       </c>
       <c r="C16">
-        <v>0.4933724260620906</v>
+        <v>0.3875719325478846</v>
       </c>
       <c r="D16">
-        <v>0.06103463172912597</v>
+        <v>0.09527130126953125</v>
       </c>
       <c r="E16">
-        <v>0.01898289407949414</v>
+        <v>0.004601616430935351</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1329,16 +1329,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.528285884857178</v>
+        <v>11.65600876808167</v>
       </c>
       <c r="C17">
-        <v>0.2886592628242097</v>
+        <v>0.1618150737851474</v>
       </c>
       <c r="D17">
-        <v>0.0440788745880127</v>
+        <v>0.07344403266906738</v>
       </c>
       <c r="E17">
-        <v>0.006421807495896814</v>
+        <v>0.004290680062763465</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1382,16 +1382,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.37995357513428</v>
+        <v>23.17367658615112</v>
       </c>
       <c r="C18">
-        <v>0.4871414225522053</v>
+        <v>0.4450547816810063</v>
       </c>
       <c r="D18">
-        <v>0.04230141639709473</v>
+        <v>0.08206009864807129</v>
       </c>
       <c r="E18">
-        <v>0.009419187832709227</v>
+        <v>0.007149686222786693</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1435,16 +1435,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.45127210617066</v>
+        <v>42.93257284164429</v>
       </c>
       <c r="C19">
-        <v>1.049820513529867</v>
+        <v>0.7205572087523667</v>
       </c>
       <c r="D19">
-        <v>0.02834458351135254</v>
+        <v>0.0836247444152832</v>
       </c>
       <c r="E19">
-        <v>0.01204993908267794</v>
+        <v>0.01177166525182124</v>
       </c>
       <c r="F19">
         <v>2</v>

--- a/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_xgb_o.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_xgb_o.xlsx
@@ -534,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.442591905593872</v>
+        <v>4.205760431289673</v>
       </c>
       <c r="C2">
-        <v>0.09637901536126538</v>
+        <v>0.1009974647454727</v>
       </c>
       <c r="D2">
-        <v>0.07194228172302246</v>
+        <v>0.03587498664855957</v>
       </c>
       <c r="E2">
-        <v>0.00635559603797778</v>
+        <v>0.006868757149451475</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.30804924964905</v>
+        <v>7.336109733581543</v>
       </c>
       <c r="C3">
-        <v>0.3932632884317404</v>
+        <v>0.3371465453695797</v>
       </c>
       <c r="D3">
-        <v>0.07295293807983398</v>
+        <v>0.03604531288146973</v>
       </c>
       <c r="E3">
-        <v>0.006949781692282181</v>
+        <v>0.00631451167721674</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -640,16 +640,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>29.17305912971496</v>
+        <v>13.82523303031921</v>
       </c>
       <c r="C4">
-        <v>0.5021116178626788</v>
+        <v>0.3100825911373929</v>
       </c>
       <c r="D4">
-        <v>0.09223575592041015</v>
+        <v>0.04269142150878906</v>
       </c>
       <c r="E4">
-        <v>0.01522529843220771</v>
+        <v>0.009681963229422361</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -693,16 +693,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.550992631912232</v>
+        <v>3.518579339981079</v>
       </c>
       <c r="C5">
-        <v>0.08888154339160352</v>
+        <v>0.03835892770194482</v>
       </c>
       <c r="D5">
-        <v>0.07046957015991211</v>
+        <v>0.03826174736022949</v>
       </c>
       <c r="E5">
-        <v>0.0002037414975872083</v>
+        <v>0.01225989748564227</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -746,16 +746,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.79172492027283</v>
+        <v>7.172278928756714</v>
       </c>
       <c r="C6">
-        <v>0.1219422999300554</v>
+        <v>0.1931906735945007</v>
       </c>
       <c r="D6">
-        <v>0.07540178298950195</v>
+        <v>0.03761277198791504</v>
       </c>
       <c r="E6">
-        <v>0.004160501375129333</v>
+        <v>0.007796195673620092</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -799,16 +799,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>29.34107294082641</v>
+        <v>14.64009776115418</v>
       </c>
       <c r="C7">
-        <v>0.2268794595398752</v>
+        <v>0.3762508904896886</v>
       </c>
       <c r="D7">
-        <v>0.08635048866271973</v>
+        <v>0.04078044891357422</v>
       </c>
       <c r="E7">
-        <v>0.005289264604980353</v>
+        <v>0.008769823077852557</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -852,16 +852,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.503352880477905</v>
+        <v>3.612517023086548</v>
       </c>
       <c r="C8">
-        <v>0.1310849593164851</v>
+        <v>0.01347049661194879</v>
       </c>
       <c r="D8">
-        <v>0.07201232910156249</v>
+        <v>0.03474311828613282</v>
       </c>
       <c r="E8">
-        <v>0.001875570038857396</v>
+        <v>0.00607964187202315</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -905,16 +905,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.81755609512329</v>
+        <v>7.745647048950195</v>
       </c>
       <c r="C9">
-        <v>0.09037786525726574</v>
+        <v>0.2723785503117612</v>
       </c>
       <c r="D9">
-        <v>0.07908854484558106</v>
+        <v>0.04200458526611328</v>
       </c>
       <c r="E9">
-        <v>0.007138009181244579</v>
+        <v>0.00762565876127724</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -958,16 +958,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.40169577598572</v>
+        <v>15.98257255554199</v>
       </c>
       <c r="C10">
-        <v>0.3806916782220406</v>
+        <v>0.3013681788951205</v>
       </c>
       <c r="D10">
-        <v>0.09012331962585449</v>
+        <v>0.04900240898132324</v>
       </c>
       <c r="E10">
-        <v>0.008480660304821776</v>
+        <v>0.003613017520027225</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1011,16 +1011,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.593577003479</v>
+        <v>6.336185646057129</v>
       </c>
       <c r="C11">
-        <v>0.2024801433783342</v>
+        <v>0.1839599511392941</v>
       </c>
       <c r="D11">
-        <v>0.07550430297851562</v>
+        <v>0.04196724891662598</v>
       </c>
       <c r="E11">
-        <v>0.003885557849133119</v>
+        <v>0.008492742092590461</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1064,16 +1064,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.70200910568237</v>
+        <v>12.526837682724</v>
       </c>
       <c r="C12">
-        <v>0.3262352356880858</v>
+        <v>0.2529205023533618</v>
       </c>
       <c r="D12">
-        <v>0.08745970726013183</v>
+        <v>0.05074687004089355</v>
       </c>
       <c r="E12">
-        <v>0.01217818486302853</v>
+        <v>0.01513729659413465</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1117,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>45.58377585411072</v>
+        <v>24.73205542564392</v>
       </c>
       <c r="C13">
-        <v>0.4045742983330028</v>
+        <v>0.3892668174741612</v>
       </c>
       <c r="D13">
-        <v>0.09457931518554688</v>
+        <v>0.05021481513977051</v>
       </c>
       <c r="E13">
-        <v>0.005093394880103446</v>
+        <v>0.006809498803506136</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1170,16 +1170,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.76920690536499</v>
+        <v>6.213076496124268</v>
       </c>
       <c r="C14">
-        <v>0.03635513258113836</v>
+        <v>0.03946300820504198</v>
       </c>
       <c r="D14">
-        <v>0.07297191619873047</v>
+        <v>0.04275979995727539</v>
       </c>
       <c r="E14">
-        <v>0.007759272300865245</v>
+        <v>0.006156839556457492</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1223,16 +1223,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.00003199577332</v>
+        <v>12.68657379150391</v>
       </c>
       <c r="C15">
-        <v>0.351273547914037</v>
+        <v>0.2992691600706321</v>
       </c>
       <c r="D15">
-        <v>0.0801931381225586</v>
+        <v>0.04802498817443848</v>
       </c>
       <c r="E15">
-        <v>0.0007817859523759911</v>
+        <v>0.001755924523093609</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1276,16 +1276,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>45.76391348838806</v>
+        <v>24.93659763336182</v>
       </c>
       <c r="C16">
-        <v>0.3875719325478846</v>
+        <v>0.4933724260620906</v>
       </c>
       <c r="D16">
-        <v>0.09527130126953125</v>
+        <v>0.06103463172912597</v>
       </c>
       <c r="E16">
-        <v>0.004601616430935351</v>
+        <v>0.01898289407949414</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1329,16 +1329,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.65600876808167</v>
+        <v>6.528285884857178</v>
       </c>
       <c r="C17">
-        <v>0.1618150737851474</v>
+        <v>0.2886592628242097</v>
       </c>
       <c r="D17">
-        <v>0.07344403266906738</v>
+        <v>0.0440788745880127</v>
       </c>
       <c r="E17">
-        <v>0.004290680062763465</v>
+        <v>0.006421807495896814</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1382,16 +1382,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.17367658615112</v>
+        <v>12.37995357513428</v>
       </c>
       <c r="C18">
-        <v>0.4450547816810063</v>
+        <v>0.4871414225522053</v>
       </c>
       <c r="D18">
-        <v>0.08206009864807129</v>
+        <v>0.04230141639709473</v>
       </c>
       <c r="E18">
-        <v>0.007149686222786693</v>
+        <v>0.009419187832709227</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1435,16 +1435,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>42.93257284164429</v>
+        <v>19.45127210617066</v>
       </c>
       <c r="C19">
-        <v>0.7205572087523667</v>
+        <v>1.049820513529867</v>
       </c>
       <c r="D19">
-        <v>0.0836247444152832</v>
+        <v>0.02834458351135254</v>
       </c>
       <c r="E19">
-        <v>0.01177166525182124</v>
+        <v>0.01204993908267794</v>
       </c>
       <c r="F19">
         <v>2</v>
